--- a/Samples/Perfx_Inputs.xlsx
+++ b/Samples/Perfx_Inputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Github\vamsitp\perfx\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC3532C-9EFF-4F78-BFA2-591A7AE2A062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A51350-B9B9-4830-B6EA-D0BD35D398A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24960" windowHeight="17349" xr2:uid="{45A416CC-3C6B-4F64-BC20-F86E65E9CB73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Body</t>
   </si>
@@ -59,12 +59,6 @@
     <t>https://your-api.com/route2</t>
   </si>
   <si>
-    <t>/param1</t>
-  </si>
-  <si>
-    <t>param2</t>
-  </si>
-  <si>
     <t>https://your-api.com/route3</t>
   </si>
   <si>
@@ -80,17 +74,27 @@
     <t>Headers</t>
   </si>
   <si>
-    <t>{"SomeJsonKey": "Some Value"}</t>
-  </si>
-  <si>
-    <t>Content-Type: application/json</t>
+    <t>application/json: {"SomeJsonKey": "Some Value"}</t>
+  </si>
+  <si>
+    <t>Content-Type: application/json
+Request-ID: CF8E36D3-28A3-49CA-BF92-3816CE5B2FBF</t>
+  </si>
+  <si>
+    <t>/action1</t>
+  </si>
+  <si>
+    <t>?param1=10</t>
+  </si>
+  <si>
+    <t>text/json: &lt;xml id=someKey"&gt;Some Value&lt;/xml&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -115,6 +119,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -145,11 +156,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,78 +488,81 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="34.15234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="28.4609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.61328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.23046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Samples/Perfx_Inputs.xlsx
+++ b/Samples/Perfx_Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Github\vamsitp\perfx\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A51350-B9B9-4830-B6EA-D0BD35D398A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F3E24-E44C-44DD-928D-3BA548D01797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24960" windowHeight="17349" xr2:uid="{45A416CC-3C6B-4F64-BC20-F86E65E9CB73}"/>
+    <workbookView xWindow="549" yWindow="2280" windowWidth="15925" windowHeight="6189" xr2:uid="{45A416CC-3C6B-4F64-BC20-F86E65E9CB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <t>?param1=10</t>
   </si>
   <si>
-    <t>text/json: &lt;xml id=someKey"&gt;Some Value&lt;/xml&gt;</t>
+    <t>text/xml: &lt;xml id=someKey"&gt;Some Value&lt;/xml&gt;</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
